--- a/ig/sd-extension-pays-de-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-pays-de-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:33:02+00:00</t>
+    <t>2023-07-26T16:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,6 +422,22 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-region</t>
+  </si>
+  <si>
+    <t>eclaire-region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-region}
+</t>
+  </si>
+  <si>
+    <t>zone de recrutement  / A country, state or other area where the study is taking place rather than its precise geographic location or address</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le ou les pays de recrutement de l'essai</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-label</t>
@@ -1747,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3438,11 +3454,13 @@
         <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3455,26 +3473,22 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>37</v>
       </c>
@@ -3510,19 +3524,19 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3543,7 +3557,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3561,7 +3575,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3574,23 +3588,25 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3627,10 +3643,10 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
@@ -3639,7 +3655,7 @@
         <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3651,34 +3667,32 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3687,10 +3701,10 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
@@ -3699,17 +3713,17 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3746,19 +3760,19 @@
         <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3773,29 +3787,31 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>37</v>
       </c>
@@ -3807,25 +3823,27 @@
         <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>37</v>
       </c>
@@ -3873,53 +3891,53 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3931,17 +3949,15 @@
         <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3978,31 +3994,31 @@
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -4011,7 +4027,7 @@
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4022,46 +4038,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>37</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4085,52 +4099,52 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4141,10 +4155,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4152,7 +4166,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>46</v>
@@ -4161,25 +4175,25 @@
         <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4189,7 +4203,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4204,13 +4218,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4228,7 +4242,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4246,10 +4260,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4260,10 +4274,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4286,19 +4300,19 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -4311,7 +4325,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4323,13 +4337,13 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4347,7 +4361,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4365,10 +4379,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4379,10 +4393,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4405,18 +4419,20 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4428,7 +4444,7 @@
         <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>37</v>
@@ -4464,7 +4480,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4482,10 +4498,10 @@
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4496,10 +4512,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4522,16 +4538,16 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4545,7 +4561,7 @@
         <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>37</v>
@@ -4581,7 +4597,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4593,16 +4609,16 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4613,10 +4629,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4639,16 +4655,16 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4698,7 +4714,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4710,16 +4726,16 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4730,14 +4746,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4746,10 +4760,10 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>37</v>
@@ -4758,18 +4772,18 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4817,44 +4831,46 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>37</v>
       </c>
@@ -4863,28 +4879,30 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>37</v>
       </c>
@@ -4932,53 +4950,53 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4990,17 +5008,15 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5037,31 +5053,31 @@
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5070,7 +5086,7 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5081,46 +5097,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>166</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>37</v>
       </c>
@@ -5129,7 +5143,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5144,52 +5158,52 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5200,10 +5214,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5211,7 +5225,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>46</v>
@@ -5220,25 +5234,25 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5248,7 +5262,7 @@
         <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>37</v>
@@ -5263,13 +5277,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5287,7 +5301,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5305,10 +5319,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5319,10 +5333,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5345,19 +5359,19 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5370,7 +5384,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5382,13 +5396,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -5406,7 +5420,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5424,10 +5438,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5438,10 +5452,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5464,18 +5478,20 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
       </c>
@@ -5487,7 +5503,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5523,7 +5539,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5541,10 +5557,10 @@
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5555,10 +5571,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5581,16 +5597,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5604,7 +5620,7 @@
         <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>37</v>
@@ -5640,7 +5656,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5652,16 +5668,16 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5672,10 +5688,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5698,16 +5714,16 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5757,7 +5773,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5769,16 +5785,16 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5789,10 +5805,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5815,16 +5831,16 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5874,7 +5890,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5886,19 +5902,19 @@
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5906,10 +5922,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5920,7 +5936,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5932,16 +5948,16 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5991,31 +6007,31 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6023,14 +6039,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6049,20 +6065,18 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6110,7 +6124,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6122,19 +6136,19 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
@@ -6142,44 +6156,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6203,13 +6219,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6227,42 +6243,42 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6270,7 +6286,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>46</v>
@@ -6279,22 +6295,22 @@
         <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6320,13 +6336,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6344,10 +6360,10 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>46</v>
@@ -6359,27 +6375,27 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6402,16 +6418,16 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6437,13 +6453,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6461,7 +6477,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6476,16 +6492,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6493,10 +6509,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6507,7 +6523,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6519,16 +6535,16 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6554,13 +6570,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6578,13 +6594,13 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>58</v>
@@ -6593,16 +6609,16 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
@@ -6610,10 +6626,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6636,16 +6652,16 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6671,10 +6687,10 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>37</v>
@@ -6695,7 +6711,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6710,27 +6726,27 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6753,16 +6769,16 @@
         <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6788,13 +6804,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6812,7 +6828,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6827,27 +6843,27 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6870,15 +6886,17 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6903,13 +6921,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -6927,7 +6945,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6942,27 +6960,27 @@
         <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6973,7 +6991,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6982,16 +7000,16 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7042,22 +7060,22 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
@@ -7066,7 +7084,7 @@
         <v>67</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>37</v>
@@ -7074,21 +7092,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7100,17 +7118,15 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7147,31 +7163,31 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7180,7 +7196,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7191,23 +7207,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7219,15 +7233,17 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7264,19 +7280,19 @@
         <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7297,7 +7313,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7311,9 +7327,11 @@
         <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>37</v>
       </c>
@@ -7331,20 +7349,18 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7393,19 +7409,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7414,7 +7430,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7439,7 +7455,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7451,15 +7467,17 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7514,22 +7532,22 @@
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7540,10 +7558,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7563,20 +7581,18 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7625,7 +7641,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7637,19 +7653,19 @@
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7657,10 +7673,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7680,19 +7696,19 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7718,10 +7734,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7742,7 +7758,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7757,16 +7773,16 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7774,10 +7790,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7800,16 +7816,16 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7835,13 +7851,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7859,7 +7875,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7874,16 +7890,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -7891,10 +7907,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7905,7 +7921,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -7914,19 +7930,19 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7952,13 +7968,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -7976,13 +7992,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
@@ -7991,16 +8007,16 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8008,21 +8024,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8031,19 +8047,19 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8093,53 +8109,53 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>67</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8151,16 +8167,16 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8210,46 +8226,46 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8268,16 +8284,16 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8327,7 +8343,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8339,30 +8355,30 @@
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8385,16 +8401,16 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8444,7 +8460,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8456,30 +8472,30 @@
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8490,7 +8506,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8502,16 +8518,16 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8561,42 +8577,42 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AO58" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8607,7 +8623,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8619,16 +8635,16 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8654,13 +8670,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8678,42 +8694,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8724,7 +8740,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8733,19 +8749,19 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8771,13 +8787,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -8795,13 +8811,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
@@ -8810,27 +8826,27 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8853,15 +8869,17 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8910,7 +8928,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8925,16 +8943,16 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8942,10 +8960,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8956,7 +8974,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8968,13 +8986,13 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>155</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>156</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>157</v>
+        <v>420</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9025,22 +9043,22 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>158</v>
+        <v>417</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
@@ -9049,7 +9067,7 @@
         <v>67</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9057,21 +9075,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9083,17 +9101,15 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9130,31 +9146,31 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -9163,7 +9179,7 @@
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9174,14 +9190,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9194,26 +9210,24 @@
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>95</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O64" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9249,19 +9263,19 @@
         <v>37</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>167</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9300,37 +9314,39 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9378,31 +9394,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9421,7 +9437,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>46</v>
@@ -9436,7 +9452,7 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>431</v>
@@ -9445,7 +9461,7 @@
         <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9498,7 +9514,7 @@
         <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>46</v>
@@ -9513,10 +9529,10 @@
         <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>434</v>
@@ -9553,7 +9569,7 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>436</v>
@@ -9562,7 +9578,7 @@
         <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9630,10 +9646,10 @@
         <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>439</v>
@@ -9658,7 +9674,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -9670,7 +9686,7 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>441</v>
@@ -9678,7 +9694,9 @@
       <c r="M68" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9733,7 +9751,7 @@
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>58</v>
@@ -9751,7 +9769,7 @@
         <v>67</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9759,10 +9777,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9773,7 +9791,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9785,13 +9803,13 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>157</v>
+        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9842,22 +9860,22 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
@@ -9874,21 +9892,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -9900,17 +9918,15 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -9947,31 +9963,31 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
@@ -9980,7 +9996,7 @@
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -9991,14 +10007,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10011,26 +10027,24 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>95</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O71" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10066,19 +10080,19 @@
         <v>37</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>167</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10110,44 +10124,46 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>37</v>
       </c>
@@ -10195,28 +10211,28 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10227,10 +10243,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10253,16 +10269,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10288,13 +10304,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -10312,7 +10328,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10327,23 +10343,140 @@
         <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="B74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10353,7 +10486,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
